--- a/Editorial/ig/StructureDefinition-FrMedicationReconciliationMedicationStatement.xlsx
+++ b/Editorial/ig/StructureDefinition-FrMedicationReconciliationMedicationStatement.xlsx
@@ -4019,7 +4019,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
